--- a/test/Sprint 2 .xlsx
+++ b/test/Sprint 2 .xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25629"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rosel\Dropbox\Uni\2° Cuatrismestre\TESTING DE APLICACIONES\Sprint\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HP\Desktop\BanRosQui-Testing-Aplicaciones\test\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66454B7C-322B-474A-A7ED-96E5AAFE2CA4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E573BF3-E1F1-478E-8AB9-7431B0886D4F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="25440" windowHeight="15390" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Caso de Pueba" sheetId="2" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="70">
   <si>
     <t>Id del 
 CU/Req</t>
@@ -182,6 +182,75 @@
   <si>
     <t xml:space="preserve"> CP - 003</t>
   </si>
+  <si>
+    <t>PE-54</t>
+  </si>
+  <si>
+    <t>CP-Logueo_Exitoso</t>
+  </si>
+  <si>
+    <t>Se ingresa mail y contraseña de usuario existente</t>
+  </si>
+  <si>
+    <t>Ciclo 1</t>
+  </si>
+  <si>
+    <t>Datos de inicio de sesion validos</t>
+  </si>
+  <si>
+    <t>Sesion iniciada con éxito</t>
+  </si>
+  <si>
+    <t>Sesion iniciada</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cuenta de Email y contraseña anteriormente registrada </t>
+  </si>
+  <si>
+    <t>Cp - 002</t>
+  </si>
+  <si>
+    <t>Se ingresa mail y/o contraseña incorrecto</t>
+  </si>
+  <si>
+    <t>Datos de inicio de sesion incorrectos</t>
+  </si>
+  <si>
+    <t>Mensaje de error</t>
+  </si>
+  <si>
+    <t>Mensaje de error y pedir de vuelta los datos</t>
+  </si>
+  <si>
+    <t>CP-Logueo_Invalido</t>
+  </si>
+  <si>
+    <t>Ciclo 2</t>
+  </si>
+  <si>
+    <t>Suspendido</t>
+  </si>
+  <si>
+    <t>Cuenta de email y contraseña requerida</t>
+  </si>
+  <si>
+    <t>Cp-002</t>
+  </si>
+  <si>
+    <t>Cp-Logueo_invalido</t>
+  </si>
+  <si>
+    <t>Se ingresa mail y/o contraseña incorrecto y se bloquea al usuario</t>
+  </si>
+  <si>
+    <t>Ciclo 3</t>
+  </si>
+  <si>
+    <t>Mensaje de bloqueo de usuario</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Bloqueo de cuenta y opcion de desbloqueo</t>
+  </si>
 </sst>
 </file>
 
@@ -326,19 +395,19 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -564,9 +633,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:Z1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B5" sqref="B5"/>
+    <sheetView tabSelected="1" zoomScale="52" zoomScaleNormal="52" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -835,20 +904,44 @@
       <c r="Y5" s="4"/>
       <c r="Z5" s="4"/>
     </row>
-    <row r="6" spans="1:26" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A6" s="12"/>
-      <c r="B6" s="12"/>
-      <c r="C6" s="12"/>
-      <c r="D6" s="12"/>
-      <c r="E6" s="12"/>
-      <c r="F6" s="12"/>
-      <c r="G6" s="12"/>
+    <row r="6" spans="1:26" ht="69.75" x14ac:dyDescent="0.25">
+      <c r="A6" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="B6" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="C6" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="D6" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="E6" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="F6" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="G6" s="12" t="s">
+        <v>28</v>
+      </c>
       <c r="H6" s="12"/>
-      <c r="I6" s="12"/>
-      <c r="J6" s="12"/>
-      <c r="K6" s="12"/>
-      <c r="L6" s="12"/>
-      <c r="M6" s="12"/>
+      <c r="I6" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="J6" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="K6" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="L6" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="M6" s="12" t="s">
+        <v>53</v>
+      </c>
       <c r="N6" s="4"/>
       <c r="O6" s="4"/>
       <c r="P6" s="4"/>
@@ -863,20 +956,44 @@
       <c r="Y6" s="4"/>
       <c r="Z6" s="4"/>
     </row>
-    <row r="7" spans="1:26" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A7" s="12"/>
-      <c r="B7" s="12"/>
-      <c r="C7" s="12"/>
-      <c r="D7" s="12"/>
-      <c r="E7" s="12"/>
-      <c r="F7" s="12"/>
-      <c r="G7" s="12"/>
+    <row r="7" spans="1:26" ht="69.75" x14ac:dyDescent="0.25">
+      <c r="A7" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="B7" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="C7" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="D7" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="E7" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="F7" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="G7" s="12" t="s">
+        <v>28</v>
+      </c>
       <c r="H7" s="12"/>
-      <c r="I7" s="12"/>
-      <c r="J7" s="12"/>
-      <c r="K7" s="12"/>
-      <c r="L7" s="12"/>
-      <c r="M7" s="12"/>
+      <c r="I7" s="12" t="s">
+        <v>62</v>
+      </c>
+      <c r="J7" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="K7" s="12" t="s">
+        <v>59</v>
+      </c>
+      <c r="L7" s="12" t="s">
+        <v>63</v>
+      </c>
+      <c r="M7" s="12" t="s">
+        <v>58</v>
+      </c>
       <c r="N7" s="4"/>
       <c r="O7" s="4"/>
       <c r="P7" s="4"/>
@@ -891,20 +1008,44 @@
       <c r="Y7" s="4"/>
       <c r="Z7" s="4"/>
     </row>
-    <row r="8" spans="1:26" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A8" s="11"/>
-      <c r="B8" s="11"/>
-      <c r="C8" s="11"/>
-      <c r="D8" s="11"/>
-      <c r="E8" s="11"/>
-      <c r="F8" s="11"/>
-      <c r="G8" s="11"/>
-      <c r="H8" s="11"/>
-      <c r="I8" s="11"/>
-      <c r="J8" s="11"/>
-      <c r="K8" s="11"/>
-      <c r="L8" s="11"/>
-      <c r="M8" s="11"/>
+    <row r="8" spans="1:26" ht="69.75" x14ac:dyDescent="0.25">
+      <c r="A8" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="B8" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="C8" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="D8" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="E8" s="12" t="s">
+        <v>61</v>
+      </c>
+      <c r="F8" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="G8" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="H8" s="12"/>
+      <c r="I8" s="12" t="s">
+        <v>62</v>
+      </c>
+      <c r="J8" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="K8" s="12" t="s">
+        <v>59</v>
+      </c>
+      <c r="L8" s="12" t="s">
+        <v>63</v>
+      </c>
+      <c r="M8" s="12" t="s">
+        <v>58</v>
+      </c>
       <c r="N8" s="4"/>
       <c r="O8" s="4"/>
       <c r="P8" s="4"/>
@@ -919,20 +1060,44 @@
       <c r="Y8" s="4"/>
       <c r="Z8" s="4"/>
     </row>
-    <row r="9" spans="1:26" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A9" s="11"/>
-      <c r="B9" s="11"/>
-      <c r="C9" s="11"/>
-      <c r="D9" s="11"/>
-      <c r="E9" s="11"/>
-      <c r="F9" s="11"/>
-      <c r="G9" s="11"/>
-      <c r="H9" s="11"/>
-      <c r="I9" s="11"/>
-      <c r="J9" s="11"/>
-      <c r="K9" s="11"/>
-      <c r="L9" s="11"/>
-      <c r="M9" s="11"/>
+    <row r="9" spans="1:26" ht="69.75" x14ac:dyDescent="0.25">
+      <c r="A9" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="B9" s="12" t="s">
+        <v>64</v>
+      </c>
+      <c r="C9" s="12" t="s">
+        <v>65</v>
+      </c>
+      <c r="D9" s="12" t="s">
+        <v>66</v>
+      </c>
+      <c r="E9" s="12" t="s">
+        <v>67</v>
+      </c>
+      <c r="F9" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="G9" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="H9" s="12"/>
+      <c r="I9" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="J9" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="K9" s="12" t="s">
+        <v>68</v>
+      </c>
+      <c r="L9" s="12" t="s">
+        <v>63</v>
+      </c>
+      <c r="M9" s="12" t="s">
+        <v>69</v>
+      </c>
       <c r="N9" s="4"/>
       <c r="O9" s="4"/>
       <c r="P9" s="4"/>
@@ -22893,6 +23058,15 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x010100E309675FC26D9E4ABA60BAAC75DEEA81" ma:contentTypeVersion="12" ma:contentTypeDescription="Crear nuevo documento." ma:contentTypeScope="" ma:versionID="10dac0764c1940df43e46c1f638ffd9e">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="810f7bbc-45f2-450f-9230-4dcebeddf6fd" xmlns:ns3="c383b31d-da42-4f0a-b56c-2286796dd532" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="fcf623b4ed9112ffdd5f7f3e3adce81b" ns2:_="" ns3:_="">
     <xsd:import namespace="810f7bbc-45f2-450f-9230-4dcebeddf6fd"/>
@@ -23109,15 +23283,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{22AE340B-4738-4CC1-8396-A470D381AA99}">
   <ds:schemaRefs>
@@ -23130,6 +23295,14 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{844ADD61-FA68-4800-8FE9-83687CD68C65}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E67612FC-AFEE-443A-AD6F-1AAE9DB04481}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -23146,12 +23319,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{844ADD61-FA68-4800-8FE9-83687CD68C65}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>